--- a/pred_ohlcv/54_21/2019-10-28 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 EOS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-30687.55275893</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-30687.55275893</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-31136.39435893</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-14973.86065892999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-14828.91425892999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-14845.09905892999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-16330.22015892999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-16330.22015892999</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-17812.98275892999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-17628.12565892999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-17696.99205892999</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-16349.06995892999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-19383.95685892999</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-20933.45175892999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-18159.12715892999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-17785.80435892999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-17785.55115892999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-10307.81755892999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-10549.83285892999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-7187.650058929989</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-6384.498258929989</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-6384.498258929989</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1740.879607549989</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1740.879607549989</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>332.4002924500114</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3940.973092450011</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1015.480851269989</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>578.9344487300111</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-346.3168512699889</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>7975.477748730011</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>7856.000748730011</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>7856.000748730011</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>7923.898548730011</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>4690.583536120011</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>2561.397936120011</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>2003.495636120011</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>3138.281736120011</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>3138.281736120011</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>3628.916936120011</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>3917.080336120011</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>5273.299436120011</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-3892.401063879989</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>30042.56382422999</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>30042.56382422999</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>30199.83702422999</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>37148.91332422999</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>35280.78092423</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>34497.42422423</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>26653.88382423</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>25845.30181686</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>25930.53541686</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>27155.5765007</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>19587.88739896</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>14502.55659896</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>12530.89369896</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>12530.89369896</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>15438.10999896</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>15438.10999896</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>15304.29619896</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>16654.60699896</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>16654.60699896</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>21528.96309896</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>19476.14019896</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>17626.27729896</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>17897.51579896</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>17720.47989896</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>19486.74619896</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>19472.21809896</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>18345.34659896</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>24722.47539896</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>24402.79809896</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>25717.45509896</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>29625.65899896</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>28760.29059896</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>21639.76929896</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>19817.79519896</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>39266.74269895999</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>39266.74269895999</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>38732.32499895999</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>41455.50499895999</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>41478.43809896</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>41733.28319895999</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>41152.80489895999</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>41942.22019895999</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>45616.34819895999</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>45616.34819895999</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>44116.34819895999</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>44116.34819895999</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>44170.34819895999</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>45578.06059895999</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>45580.06059895999</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>47885.33379895999</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>49205.68219895999</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>47668.32999895999</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>52050.35579895999</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>51512.16389896</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>52468.89559895999</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>54387.61769895999</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>229035.5479553901</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>220326.3864795901</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>226797.4055795901</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>285714.5327502401</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>273676.07285024</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>277227.01275024</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>266731.51642038</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>285450.47209674</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>269162.74139674</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>254254.54519674</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>282005.66663571</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>272902.10113571</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>256896.57553571</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>263777.0812357099</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>282174.60353789</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>276291.68713789</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>276291.68713789</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>274557.84033789</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>265893.42730522</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>676673.381625531</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>697707.325625531</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>723689.4075092711</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>715001.8818815011</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>711859.454681501</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>718613.8352815011</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>697735.315081501</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>707475.339781501</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>703797.914081501</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>702374.351581501</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>698136.494003591</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>695421.131427641</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>686903.988811581</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>694220.332111581</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>702621.0946954209</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>766679.683495421</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>748033.303495421</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>732739.5992954209</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>709001.2447562909</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>701006.9621159009</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>701006.9621159009</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>703371.160415901</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>709728.820415901</v>
       </c>
       <c r="H944">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>714670.207915901</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>709830.076115901</v>
       </c>
       <c r="H946">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>704245.9721159009</v>
       </c>
       <c r="H947">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>710304.137815901</v>
       </c>
       <c r="H948">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>692057.245115901</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>666941.701250321</v>
       </c>
       <c r="H950">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>664436.256350321</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>632764.825344821</v>
       </c>
       <c r="H952">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>648038.521044821</v>
       </c>
       <c r="H953">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 EOS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-30687.55275893</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-30687.55275893</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1740.879607549989</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1740.879607549989</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>332.4002924500114</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3940.973092450011</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1015.480851269989</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>578.9344487300111</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-346.3168512699889</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>7975.477748730011</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>7856.000748730011</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>7856.000748730011</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>7923.898548730011</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>4690.583536120011</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>2561.397936120011</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>2003.495636120011</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>3138.281736120011</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>3138.281736120011</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-3892.401063879989</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>30042.56382422999</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>30042.56382422999</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>30199.83702422999</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>37148.91332422999</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>35280.78092423</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>34497.42422423</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>26653.88382423</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>25845.30181686</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>25930.53541686</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>27155.5765007</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>19587.88739896</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>14502.55659896</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>12530.89369896</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>12530.89369896</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>15438.10999896</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>15438.10999896</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>15304.29619896</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>16654.60699896</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>16654.60699896</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>21528.96309896</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>19476.14019896</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>17626.27729896</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>17897.51579896</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>17720.47989896</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>19486.74619896</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>19472.21809896</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>38732.32499895999</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>41455.50499895999</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>41478.43809896</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>41733.28319895999</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>44170.34819895999</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>45578.06059895999</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>45580.06059895999</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>47885.33379895999</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>49205.68219895999</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>47668.32999895999</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>52050.35579895999</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>51512.16389896</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>52468.89559895999</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>54387.61769895999</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>229035.5479553901</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>220326.3864795901</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>226797.4055795901</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>285714.5327502401</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>273676.07285024</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>277227.01275024</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>266731.51642038</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>285450.47209674</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>269162.74139674</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>254254.54519674</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>282005.66663571</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>272902.10113571</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>256896.57553571</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>263777.0812357099</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>282174.60353789</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>276291.68713789</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>276291.68713789</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>274557.84033789</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>265893.42730522</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>529597.49301476</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>550857.02211476</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>536271.65581577</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>544676.27321577</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>524238.77261577</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>515577.19683121</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>519176.30173121</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>507131.49013121</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>514095.0243312099</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>512546.25403121</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>508107.96853121</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>496429.80163038</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>506209.66173038</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>508687.00693038</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>504212.7445303799</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>506489.4148303799</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>508188.43843038</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>623719.126795241</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>631610.986537831</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>623745.274537831</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>608245.786637831</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>612424.953037831</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>612424.953037831</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>633632.287537831</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>671949.112325531</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>676673.381625531</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>697707.325625531</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>723689.4075092711</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>715001.8818815011</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>711859.454681501</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>718613.8352815011</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>697735.315081501</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>707475.339781501</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>703797.914081501</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>702374.351581501</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>698136.494003591</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>695421.131427641</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>686903.988811581</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>694220.332111581</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>697253.546311581</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>693023.227711581</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>693592.976511581</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>697896.2505954209</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>709193.976595421</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>717733.840095421</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>697908.1637954209</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>702621.0946954209</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>735757.9156954209</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>766679.683495421</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>748033.303495421</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>732739.5992954209</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>709001.2447562909</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>701006.9621159009</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>701006.9621159009</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>703371.160415901</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>709728.820415901</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>714670.207915901</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>709830.076115901</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>704245.9721159009</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>710304.137815901</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>692057.245115901</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>666941.701250321</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>664436.256350321</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>632764.825344821</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>648038.521044821</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>644405.859844821</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>637557.197153461</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>641708.2838543111</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>649348.3088543111</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>652817.2500418111</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>649961.0207418111</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>646992.9182260311</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>641536.3418260311</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>636612.8154260311</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967" spans="1:8">
